--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -43,153 +43,153 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>waste</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>apart</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>cheap</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>buy</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>one</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -214,22 +214,22 @@
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>love</t>
+    <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
   </si>
   <si>
     <t>christmas</t>
@@ -677,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -695,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -727,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -777,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8064516129032258</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K5">
-        <v>0.6881720430107527</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L5">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M5">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -827,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7746478873239436</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>62</v>
@@ -877,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7669902912621359</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>63</v>
@@ -927,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.765625</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K8">
-        <v>0.5072463768115942</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.722972972972973</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K9">
-        <v>0.4487284659557014</v>
+        <v>0.4385245901639344</v>
       </c>
       <c r="L9">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="M9">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>672</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6421052631578947</v>
+        <v>0.71875</v>
       </c>
       <c r="C10">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1045,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K10">
-        <v>0.4107883817427386</v>
+        <v>0.4195402298850575</v>
       </c>
       <c r="L10">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="M10">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>284</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1077,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6386554621848739</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K11">
-        <v>0.4074605451936872</v>
+        <v>0.3775933609958506</v>
       </c>
       <c r="L11">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="M11">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>413</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1127,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6111111111111112</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K12">
-        <v>0.3386243386243386</v>
+        <v>0.308868501529052</v>
       </c>
       <c r="L12">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>125</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1177,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6041666666666666</v>
+        <v>0.6302521008403361</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K13">
-        <v>0.3313253012048193</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L13">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M13">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>111</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1227,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6024096385542169</v>
+        <v>0.5710144927536231</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1245,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K14">
-        <v>0.290519877675841</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>232</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1277,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5594202898550724</v>
+        <v>0.5433070866141733</v>
       </c>
       <c r="C15">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1295,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K15">
-        <v>0.275</v>
+        <v>0.283132530120482</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1351,13 @@
         <v>72</v>
       </c>
       <c r="K16">
-        <v>0.1686746987951807</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5118110236220472</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C17">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,31 +1395,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K17">
-        <v>0.1503957783641161</v>
+        <v>0.1624231782265145</v>
       </c>
       <c r="L17">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M17">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>966</v>
+        <v>954</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.492063492063492</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K18">
-        <v>0.1309192200557103</v>
+        <v>0.1030640668523677</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4296875</v>
+        <v>0.4644549763033176</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="D19">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1495,31 +1495,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K19">
-        <v>0.1067013662979831</v>
+        <v>0.09446254071661238</v>
       </c>
       <c r="L19">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="M19">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="N19">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O19">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>1373</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4265402843601896</v>
+        <v>0.4453125</v>
       </c>
       <c r="C20">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D20">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1545,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K20">
-        <v>0.05361930294906166</v>
+        <v>0.05495978552278821</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N20">
         <v>0.87</v>
@@ -1569,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1577,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3960396039603961</v>
+        <v>0.405940594059406</v>
       </c>
       <c r="C21">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1595,31 +1595,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K21">
-        <v>0.0430416068866571</v>
+        <v>0.04136947218259629</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N21">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="O21">
-        <v>0.21</v>
+        <v>0.12</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1627,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.358974358974359</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="C22">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1653,25 +1653,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3163636363636363</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C23">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="E23">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>188</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1679,13 +1679,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2989690721649484</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C24">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>136</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1705,25 +1705,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2959183673469388</v>
+        <v>0.3056994818652849</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>69</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1731,13 +1731,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2943037974683544</v>
+        <v>0.295</v>
       </c>
       <c r="C26">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D26">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>223</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1757,13 +1757,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2863501483679525</v>
+        <v>0.2943037974683544</v>
       </c>
       <c r="C27">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="D27">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>481</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1783,13 +1783,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2689873417721519</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="C28">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D28">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1809,13 +1809,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2628571428571428</v>
+        <v>0.2689873417721519</v>
       </c>
       <c r="C29">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D29">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>129</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1835,13 +1835,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2547770700636943</v>
+        <v>0.2551928783382789</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>117</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1861,13 +1861,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.23</v>
+        <v>0.2484076433121019</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>154</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1887,13 +1887,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2242990654205607</v>
+        <v>0.2476635514018692</v>
       </c>
       <c r="C32">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D32">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1913,25 +1913,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2142857142857143</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>110</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1939,13 +1939,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2092511013215859</v>
+        <v>0.2214285714285714</v>
       </c>
       <c r="C34">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>359</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1965,25 +1965,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2021857923497268</v>
+        <v>0.2094240837696335</v>
       </c>
       <c r="C35">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D35">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2</v>
+        <v>0.193717277486911</v>
       </c>
       <c r="C36">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D36">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E36">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>196</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2017,25 +2017,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1947565543071161</v>
+        <v>0.1815561959654179</v>
       </c>
       <c r="C37">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D37">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>215</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2043,25 +2043,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1902017291066282</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C38">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>281</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2069,25 +2069,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.189041095890411</v>
+        <v>0.1676136363636364</v>
       </c>
       <c r="C39">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2095,13 +2095,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.162303664921466</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2121,25 +2121,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1595744680851064</v>
+        <v>0.1561643835616438</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D41">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E41">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>158</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2147,25 +2147,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1274787535410765</v>
+        <v>0.145748987854251</v>
       </c>
       <c r="C42">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D42">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E42">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F42">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>308</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2173,25 +2173,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1265822784810127</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="D43">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="E43">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F43">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>276</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2199,13 +2199,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1208609271523179</v>
+        <v>0.1367713004484305</v>
       </c>
       <c r="C44">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D44">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E44">
         <v>0.05</v>
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>531</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2225,25 +2225,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1142857142857143</v>
+        <v>0.1165413533834586</v>
       </c>
       <c r="C45">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D45">
         <v>32</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2251,25 +2251,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1051454138702461</v>
+        <v>0.1129411764705882</v>
       </c>
       <c r="C46">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D46">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E46">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="F46">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>400</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2277,25 +2277,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1023255813953488</v>
+        <v>0.1043165467625899</v>
       </c>
       <c r="C47">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D47">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E47">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F47">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>386</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2303,25 +2303,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.08254716981132075</v>
+        <v>0.09206349206349207</v>
       </c>
       <c r="C48">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E48">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="F48">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>389</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2329,25 +2329,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.06958250497017893</v>
+        <v>0.07800511508951406</v>
       </c>
       <c r="C49">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D49">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E49">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="F49">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>468</v>
+        <v>721</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2355,25 +2355,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0670995670995671</v>
+        <v>0.07728337236533958</v>
       </c>
       <c r="C50">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D50">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E50">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="F50">
-        <v>0.8200000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>431</v>
+        <v>394</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2381,25 +2381,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.06635802469135803</v>
+        <v>0.06811145510835913</v>
       </c>
       <c r="C51">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E51">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="F51">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2407,25 +2407,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.06369426751592357</v>
+        <v>0.06224899598393574</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D52">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E52">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="F52">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>735</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
